--- a/10_datenanalyse-interaktive-dashboards/RShinyTraining/Daten/Mitgliederdaten.xlsx
+++ b/10_datenanalyse-interaktive-dashboards/RShinyTraining/Daten/Mitgliederdaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninahauser/rprojects/projektzyklus-workshops/10_datenanalyse-interaktive-dashboards/RShinyTraining/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9524DE8B-07B2-714B-AF93-00F093C3846A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC128560-7A4D-2E41-B538-F788D0F01048}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="2160" windowWidth="28040" windowHeight="17360" xr2:uid="{A151CDF0-585A-BF42-BE9E-C507B4414376}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$J$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$I$51</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="27">
   <si>
     <t>Mitglieds-ID</t>
   </si>
@@ -60,25 +60,10 @@
     <t>Beschäftigungsstatus</t>
   </si>
   <si>
-    <t>Mitgliedsbeitrag (Kategorie)</t>
-  </si>
-  <si>
-    <t>Mitgliedsbeitrag (in EUR)</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>W</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Reduziert</t>
-  </si>
-  <si>
-    <t>Förderung</t>
   </si>
   <si>
     <t>Berufstätig</t>
@@ -130,6 +115,9 @@
   </si>
   <si>
     <t>nicht-binär</t>
+  </si>
+  <si>
+    <t>Spende (p.a. in EUR)</t>
   </si>
 </sst>
 </file>
@@ -496,15 +484,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B9E068-15FD-6D47-8CB3-BD2B4A20F9DC}">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -530,114 +518,102 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>34191</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1">
         <v>43800</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>50</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>34871</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1">
         <v>42222</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>23350</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1">
         <v>42433</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>37515</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1">
         <v>41129</v>
@@ -646,146 +622,131 @@
         <v>43933</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>23522</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1">
         <v>43014</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>35478</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1">
         <v>44205</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>26550</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
         <v>44080</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>31171</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1">
         <v>43605</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I9">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>28932</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1">
         <v>43208</v>
@@ -794,262 +755,235 @@
         <v>43693</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>34191</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1">
         <v>43800</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>50</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1">
         <v>34871</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1">
         <v>43800</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I12">
-        <v>30</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
         <v>23350</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1">
         <v>42222</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>100</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1">
         <v>37515</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1">
         <v>42433</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I14">
-        <v>30</v>
-      </c>
-      <c r="J14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1">
         <v>23522</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1">
         <v>43014</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I15">
-        <v>30</v>
-      </c>
-      <c r="J15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>35478</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1">
         <v>44205</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I16">
-        <v>30</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
         <v>26550</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F17" s="1">
         <v>43014</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I17">
-        <v>100</v>
-      </c>
-      <c r="J17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1">
         <v>31171</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1">
         <v>44205</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I18">
-        <v>50</v>
-      </c>
-      <c r="J18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1">
         <v>28932</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F19" s="1">
         <v>44080</v>
@@ -1058,262 +992,235 @@
         <v>43213</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I19">
-        <v>100</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1">
         <v>34191</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1">
         <v>43800</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I20">
-        <v>50</v>
-      </c>
-      <c r="J20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1">
         <v>34871</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F21" s="1">
         <v>41702</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I21">
-        <v>30</v>
-      </c>
-      <c r="J21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1">
         <v>23350</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F22" s="1">
         <v>41129</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I22">
-        <v>100</v>
-      </c>
-      <c r="J22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1">
         <v>37515</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1">
         <v>43014</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I23">
-        <v>30</v>
-      </c>
-      <c r="J23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1">
         <v>23522</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F24" s="1">
         <v>44205</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I24">
-        <v>30</v>
-      </c>
-      <c r="J24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1">
         <v>35478</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F25" s="1">
         <v>44080</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I25">
-        <v>30</v>
-      </c>
-      <c r="J25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1">
         <v>26550</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F26" s="1">
         <v>44080</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I26">
         <v>100</v>
       </c>
-      <c r="J26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1">
         <v>31171</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F27" s="1">
         <v>43605</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I27">
-        <v>50</v>
-      </c>
-      <c r="J27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1">
         <v>28932</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F28" s="1">
         <v>43208</v>
@@ -1322,117 +1229,105 @@
         <v>44194</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I28">
-        <v>100</v>
-      </c>
-      <c r="J28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1">
         <v>34191</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1">
         <v>43800</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I29">
-        <v>50</v>
-      </c>
-      <c r="J29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1">
         <v>34871</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F30" s="1">
         <v>42222</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I30">
-        <v>30</v>
-      </c>
-      <c r="J30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
         <v>23350</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F31" s="1">
         <v>44080</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I31">
-        <v>100</v>
-      </c>
-      <c r="J31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1">
         <v>37515</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F32" s="1">
         <v>43605</v>
@@ -1441,146 +1336,131 @@
         <v>43954</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I32">
-        <v>30</v>
-      </c>
-      <c r="J32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1">
         <v>23522</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F33" s="1">
         <v>43208</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I33">
-        <v>30</v>
-      </c>
-      <c r="J33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1">
         <v>35478</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F34" s="1">
         <v>43800</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I34">
         <v>30</v>
       </c>
-      <c r="J34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1">
         <v>26550</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F35" s="1">
         <v>42222</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I35">
-        <v>100</v>
-      </c>
-      <c r="J35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1">
         <v>31171</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F36" s="1">
         <v>44080</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I36">
         <v>50</v>
       </c>
-      <c r="J36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1">
         <v>28932</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F37" s="1">
         <v>43605</v>
@@ -1589,117 +1469,105 @@
         <v>43714</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I37">
-        <v>100</v>
-      </c>
-      <c r="J37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1">
         <v>34191</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F38" s="1">
         <v>43208</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I38">
-        <v>50</v>
-      </c>
-      <c r="J38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1">
         <v>34871</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F39" s="1">
         <v>43800</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I39">
-        <v>30</v>
-      </c>
-      <c r="J39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" s="1">
         <v>23350</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F40" s="1">
         <v>42222</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I40">
-        <v>100</v>
-      </c>
-      <c r="J40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1">
         <v>37515</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F41" s="1">
         <v>44080</v>
@@ -1708,146 +1576,131 @@
         <v>44205</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I41">
-        <v>30</v>
-      </c>
-      <c r="J41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1">
         <v>23522</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F42" s="1">
         <v>43605</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I42">
-        <v>30</v>
-      </c>
-      <c r="J42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1">
         <v>35478</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F43" s="1">
         <v>43208</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I43">
-        <v>30</v>
-      </c>
-      <c r="J43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44" s="1">
         <v>26550</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F44" s="1">
         <v>43800</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I44">
-        <v>100</v>
-      </c>
-      <c r="J44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1">
         <v>31171</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F45" s="1">
         <v>42222</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I45">
-        <v>50</v>
-      </c>
-      <c r="J45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C46" s="1">
         <v>28932</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F46" s="1">
         <v>44080</v>
@@ -1856,117 +1709,105 @@
         <v>44210</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I46">
-        <v>100</v>
-      </c>
-      <c r="J46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1">
         <v>34191</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F47" s="1">
         <v>43605</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I47">
-        <v>50</v>
-      </c>
-      <c r="J47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" s="1">
         <v>34871</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F48" s="1">
         <v>43208</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I48">
-        <v>30</v>
-      </c>
-      <c r="J48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" s="1">
         <v>23350</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F49" s="1">
         <v>43800</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I49">
-        <v>100</v>
-      </c>
-      <c r="J49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C50" s="1">
         <v>37515</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F50" s="1">
         <v>42222</v>
@@ -1975,88 +1816,79 @@
         <v>42994</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I50">
-        <v>30</v>
-      </c>
-      <c r="J50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C51" s="1">
         <v>23522</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F51" s="1">
         <v>44080</v>
       </c>
       <c r="H51" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I51">
-        <v>30</v>
-      </c>
-      <c r="J51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C52" s="1">
         <v>23350</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F52" s="1">
         <v>43605</v>
       </c>
       <c r="H52" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I52">
-        <v>48.030303030303003</v>
-      </c>
-      <c r="J52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C53" s="1">
         <v>37515</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F53" s="1">
         <v>43208</v>
@@ -2065,146 +1897,131 @@
         <v>43474</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I53">
-        <v>46.701631701631698</v>
-      </c>
-      <c r="J53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1">
         <v>23522</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F54" s="1">
         <v>43800</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I54">
-        <v>45.372960372960399</v>
-      </c>
-      <c r="J54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C55" s="1">
         <v>35478</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F55" s="1">
         <v>42222</v>
       </c>
       <c r="H55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I55">
-        <v>44.044289044289101</v>
-      </c>
-      <c r="J55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
         <v>26550</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F56" s="1">
         <v>44080</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I56">
-        <v>42.715617715617697</v>
-      </c>
-      <c r="J56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C57" s="1">
         <v>31171</v>
       </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F57" s="1">
         <v>43605</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I57">
-        <v>41.386946386946398</v>
-      </c>
-      <c r="J57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C58" s="1">
         <v>28932</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F58" s="1">
         <v>43208</v>
@@ -2213,117 +2030,105 @@
         <v>43599</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I58">
-        <v>40.0582750582751</v>
-      </c>
-      <c r="J58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C59" s="1">
         <v>34191</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F59" s="1">
         <v>43800</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I59">
-        <v>38.729603729603703</v>
-      </c>
-      <c r="J59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1">
         <v>34871</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F60" s="1">
         <v>42222</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I60">
-        <v>37.400932400932398</v>
-      </c>
-      <c r="J60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C61" s="1">
         <v>23350</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F61" s="1">
         <v>44080</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I61">
-        <v>36.072261072261099</v>
-      </c>
-      <c r="J61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C62" s="1">
         <v>37515</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F62" s="1">
         <v>43605</v>
@@ -2332,88 +2137,79 @@
         <v>43724</v>
       </c>
       <c r="H62" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I62">
-        <v>34.743589743589801</v>
-      </c>
-      <c r="J62" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1">
         <v>23522</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F63" s="1">
         <v>43208</v>
       </c>
       <c r="H63" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I63">
-        <v>33.414918414918397</v>
-      </c>
-      <c r="J63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C64" s="1">
         <v>23350</v>
       </c>
       <c r="D64" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F64" s="1">
         <v>43800</v>
       </c>
       <c r="H64" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I64">
-        <v>32.086247086247099</v>
-      </c>
-      <c r="J64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65" s="1">
         <v>37515</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F65" s="1">
         <v>42222</v>
@@ -2422,146 +2218,131 @@
         <v>43109</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I65">
-        <v>30.7575757575758</v>
-      </c>
-      <c r="J65" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C66" s="1">
         <v>23522</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F66" s="1">
         <v>44080</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I66">
-        <v>29.428904428904399</v>
-      </c>
-      <c r="J66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C67" s="1">
         <v>35478</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F67" s="1">
         <v>43605</v>
       </c>
       <c r="H67" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I67">
-        <v>28.100233100233101</v>
-      </c>
-      <c r="J67" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C68" s="1">
         <v>26550</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F68" s="1">
         <v>43208</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I68">
-        <v>26.7715617715618</v>
-      </c>
-      <c r="J68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C69" s="1">
         <v>31171</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F69" s="1">
         <v>43800</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I69">
-        <v>25.442890442890398</v>
-      </c>
-      <c r="J69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C70" s="1">
         <v>28932</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F70" s="1">
         <v>42222</v>
@@ -2570,117 +2351,105 @@
         <v>43599</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I70">
-        <v>24.1142191142191</v>
-      </c>
-      <c r="J70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C71" s="1">
         <v>34191</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F71" s="1">
         <v>44080</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I71">
-        <v>22.785547785547799</v>
-      </c>
-      <c r="J71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C72" s="1">
         <v>34871</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E72" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F72" s="1">
         <v>43605</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I72">
-        <v>21.4568764568765</v>
-      </c>
-      <c r="J72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C73" s="1">
         <v>23350</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F73" s="1">
         <v>43208</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I73">
-        <v>20.128205128205099</v>
-      </c>
-      <c r="J73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C74" s="1">
         <v>37515</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F74" s="1">
         <v>43800</v>
@@ -2689,88 +2458,79 @@
         <v>44243</v>
       </c>
       <c r="H74" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I74">
-        <v>18.799533799533801</v>
-      </c>
-      <c r="J74" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C75" s="1">
         <v>23522</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F75" s="1">
         <v>42222</v>
       </c>
       <c r="H75" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I75">
-        <v>17.4708624708625</v>
-      </c>
-      <c r="J75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C76" s="1">
         <v>23350</v>
       </c>
       <c r="D76" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F76" s="1">
         <v>44080</v>
       </c>
       <c r="H76" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I76">
-        <v>16.142191142191098</v>
-      </c>
-      <c r="J76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C77" s="1">
         <v>37515</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F77" s="1">
         <v>43605</v>
@@ -2779,146 +2539,131 @@
         <v>44205</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I77">
-        <v>14.8135198135198</v>
-      </c>
-      <c r="J77" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>23522</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F78" s="1">
         <v>43208</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I78">
-        <v>13.4848484848485</v>
-      </c>
-      <c r="J78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C79" s="1">
         <v>35478</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F79" s="1">
         <v>43800</v>
       </c>
       <c r="H79" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I79">
-        <v>12.156177156177201</v>
-      </c>
-      <c r="J79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C80" s="1">
         <v>26550</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F80" s="1">
         <v>42222</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I80">
-        <v>10.827505827505799</v>
-      </c>
-      <c r="J80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C81" s="1">
         <v>31171</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F81" s="1">
         <v>44080</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I81">
-        <v>9.4988344988344799</v>
-      </c>
-      <c r="J81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C82" s="1">
         <v>28932</v>
       </c>
       <c r="D82" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F82" s="1">
         <v>43605</v>
@@ -2927,117 +2672,105 @@
         <v>43722</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I82">
-        <v>8.1701631701631907</v>
-      </c>
-      <c r="J82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C83" s="1">
         <v>34191</v>
       </c>
       <c r="D83" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E83" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F83" s="1">
         <v>43208</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I83">
-        <v>6.8414918414917896</v>
-      </c>
-      <c r="J83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C84" s="1">
         <v>34871</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E84" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F84" s="1">
         <v>43800</v>
       </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I84">
-        <v>5.5128205128204799</v>
-      </c>
-      <c r="J84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C85" s="1">
         <v>23350</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E85" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F85" s="1">
         <v>42222</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I85">
-        <v>4.18414918414918</v>
-      </c>
-      <c r="J85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C86" s="1">
         <v>37515</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F86" s="1">
         <v>44080</v>
@@ -3046,88 +2779,79 @@
         <v>44546</v>
       </c>
       <c r="H86" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I86">
-        <v>2.85547785547779</v>
-      </c>
-      <c r="J86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C87" s="1">
         <v>23522</v>
       </c>
       <c r="D87" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F87" s="1">
         <v>43605</v>
       </c>
       <c r="H87" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I87">
-        <v>1.5268065268064801</v>
-      </c>
-      <c r="J87" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C88" s="1">
         <v>23350</v>
       </c>
       <c r="D88" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F88" s="1">
         <v>43208</v>
       </c>
       <c r="H88" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I88">
-        <v>0.19813519813518399</v>
-      </c>
-      <c r="J88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C89" s="1">
         <v>37515</v>
       </c>
       <c r="D89" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E89" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F89" s="1">
         <v>43800</v>
@@ -3136,146 +2860,131 @@
         <v>43839</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I89">
-        <v>-1.1305361305361199</v>
-      </c>
-      <c r="J89" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C90" s="1">
         <v>23522</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F90" s="1">
         <v>42222</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I90">
-        <v>-2.4592074592075099</v>
-      </c>
-      <c r="J90" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C91" s="1">
         <v>35478</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E91" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F91" s="1">
         <v>44080</v>
       </c>
       <c r="H91" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I91">
-        <v>-3.78787878787882</v>
-      </c>
-      <c r="J91" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C92" s="1">
         <v>26550</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F92" s="1">
         <v>43605</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I92">
-        <v>-5.1165501165501102</v>
-      </c>
-      <c r="J92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C93" s="1">
         <v>31171</v>
       </c>
       <c r="D93" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F93" s="1">
         <v>43208</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I93">
-        <v>-6.4452214452215104</v>
-      </c>
-      <c r="J93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C94" s="1">
         <v>28932</v>
       </c>
       <c r="D94" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F94" s="1">
         <v>43800</v>
@@ -3284,117 +2993,105 @@
         <v>43965</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I94">
-        <v>-7.7738927738928201</v>
-      </c>
-      <c r="J94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C95" s="1">
         <v>34191</v>
       </c>
       <c r="D95" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F95" s="1">
         <v>42222</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I95">
-        <v>-9.1025641025641093</v>
-      </c>
-      <c r="J95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C96" s="1">
         <v>34871</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E96" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F96" s="1">
         <v>44080</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I96">
-        <v>-10.4312354312354</v>
-      </c>
-      <c r="J96" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C97" s="1">
         <v>23350</v>
       </c>
       <c r="D97" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E97" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F97" s="1">
         <v>43605</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I97">
-        <v>-11.7599067599068</v>
-      </c>
-      <c r="J97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C98" s="1">
         <v>37515</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F98" s="1">
         <v>43208</v>
@@ -3403,75 +3100,95 @@
         <v>42629</v>
       </c>
       <c r="H98" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I98">
-        <v>-13.0885780885781</v>
-      </c>
-      <c r="J98" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C99" s="1">
         <v>23522</v>
       </c>
       <c r="D99" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F99" s="1">
         <v>43800</v>
       </c>
       <c r="H99" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I99">
-        <v>-14.417249417249399</v>
-      </c>
-      <c r="J99" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C100" s="1">
         <v>23350</v>
       </c>
       <c r="D100" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F100" s="1">
         <v>42222</v>
       </c>
       <c r="H100" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I100">
-        <v>-15.745920745920801</v>
-      </c>
-      <c r="J100" t="s">
-        <v>13</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="1">
+        <v>37515</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="1">
+        <v>43208</v>
+      </c>
+      <c r="G101" s="1">
+        <v>42629</v>
+      </c>
+      <c r="H101" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J51" xr:uid="{98C6D894-72C2-0C45-8ED7-57BEAAF8E576}"/>
+  <autoFilter ref="A1:I51" xr:uid="{98C6D894-72C2-0C45-8ED7-57BEAAF8E576}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/10_datenanalyse-interaktive-dashboards/RShinyTraining/Daten/Mitgliederdaten.xlsx
+++ b/10_datenanalyse-interaktive-dashboards/RShinyTraining/Daten/Mitgliederdaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninahauser/rprojects/projektzyklus-workshops/10_datenanalyse-interaktive-dashboards/RShinyTraining/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC128560-7A4D-2E41-B538-F788D0F01048}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6596DDFB-F06B-8D42-A905-85FE1E4F430D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="2160" windowWidth="28040" windowHeight="17360" xr2:uid="{A151CDF0-585A-BF42-BE9E-C507B4414376}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$I$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$I$101</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -487,7 +487,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,13 +523,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>34191</v>
+        <v>26550</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -538,13 +538,13 @@
         <v>13</v>
       </c>
       <c r="F2" s="1">
-        <v>43800</v>
+        <v>44080</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -601,10 +601,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>37515</v>
@@ -616,16 +616,16 @@
         <v>13</v>
       </c>
       <c r="F5" s="1">
-        <v>41129</v>
+        <v>44080</v>
       </c>
       <c r="G5" s="1">
-        <v>43933</v>
+        <v>44546</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -708,13 +708,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>31171</v>
+        <v>34871</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -723,13 +723,13 @@
         <v>22</v>
       </c>
       <c r="F9" s="1">
-        <v>43605</v>
+        <v>41127</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -763,10 +763,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>34191</v>
@@ -784,7 +784,7 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -841,13 +841,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1">
-        <v>37515</v>
+        <v>34191</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -856,13 +856,13 @@
         <v>13</v>
       </c>
       <c r="F14" s="1">
-        <v>42433</v>
+        <v>43800</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
       </c>
       <c r="I14">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -945,13 +945,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>31171</v>
+        <v>23522</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -960,13 +960,13 @@
         <v>22</v>
       </c>
       <c r="F18" s="1">
-        <v>44205</v>
+        <v>41127</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
       </c>
       <c r="I18">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1078,13 +1078,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1">
-        <v>37515</v>
+        <v>34191</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1093,13 +1093,13 @@
         <v>13</v>
       </c>
       <c r="F23" s="1">
-        <v>43014</v>
+        <v>43800</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I23">
-        <v>70</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1182,13 +1182,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1">
-        <v>31171</v>
+        <v>34871</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
@@ -1197,13 +1197,13 @@
         <v>22</v>
       </c>
       <c r="F27" s="1">
-        <v>43605</v>
+        <v>41747</v>
       </c>
       <c r="H27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I27">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1237,13 +1237,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="1">
-        <v>34191</v>
+        <v>26550</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -1315,10 +1315,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1">
         <v>37515</v>
@@ -1330,16 +1330,16 @@
         <v>13</v>
       </c>
       <c r="F32" s="1">
-        <v>43605</v>
+        <v>43800</v>
       </c>
       <c r="G32" s="1">
-        <v>43954</v>
+        <v>44243</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1422,13 +1422,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="1">
-        <v>31171</v>
+        <v>23522</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
@@ -1437,13 +1437,13 @@
         <v>22</v>
       </c>
       <c r="F36" s="1">
-        <v>44080</v>
+        <v>41747</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
       </c>
       <c r="I36">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1477,13 +1477,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="1">
-        <v>34191</v>
+        <v>37515</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -1492,13 +1492,16 @@
         <v>13</v>
       </c>
       <c r="F38" s="1">
-        <v>43208</v>
+        <v>43605</v>
+      </c>
+      <c r="G38" s="1">
+        <v>43954</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
       </c>
       <c r="I38">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1584,13 +1587,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" s="1">
-        <v>23522</v>
+        <v>31171</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -1599,13 +1602,13 @@
         <v>22</v>
       </c>
       <c r="F42" s="1">
-        <v>43605</v>
+        <v>41779</v>
       </c>
       <c r="H42" t="s">
         <v>9</v>
       </c>
       <c r="I42">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -1636,13 +1639,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="1">
-        <v>26550</v>
+        <v>37515</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -1651,13 +1654,16 @@
         <v>13</v>
       </c>
       <c r="F44" s="1">
-        <v>43800</v>
+        <v>43605</v>
+      </c>
+      <c r="G44" s="1">
+        <v>43724</v>
       </c>
       <c r="H44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I44">
-        <v>130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -1743,13 +1749,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1">
-        <v>34871</v>
+        <v>31171</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
@@ -1758,13 +1764,13 @@
         <v>22</v>
       </c>
       <c r="F48" s="1">
-        <v>43208</v>
+        <v>42144</v>
       </c>
       <c r="H48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I48">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -1795,13 +1801,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C50" s="1">
-        <v>37515</v>
+        <v>26550</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -1810,16 +1816,13 @@
         <v>13</v>
       </c>
       <c r="F50" s="1">
-        <v>42222</v>
-      </c>
-      <c r="G50" s="1">
-        <v>42994</v>
+        <v>43605</v>
       </c>
       <c r="H50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I50">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -1905,7 +1908,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1920,13 +1923,13 @@
         <v>22</v>
       </c>
       <c r="F54" s="1">
-        <v>43800</v>
+        <v>42144</v>
       </c>
       <c r="H54" t="s">
         <v>9</v>
       </c>
       <c r="I54">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -1957,13 +1960,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="1">
-        <v>26550</v>
+        <v>34191</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -1972,13 +1975,13 @@
         <v>13</v>
       </c>
       <c r="F56" s="1">
-        <v>44080</v>
+        <v>43208</v>
       </c>
       <c r="H56" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I56">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2064,7 +2067,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -2079,13 +2082,13 @@
         <v>22</v>
       </c>
       <c r="F60" s="1">
-        <v>42222</v>
+        <v>42144</v>
       </c>
       <c r="H60" t="s">
         <v>10</v>
       </c>
       <c r="I60">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -2116,13 +2119,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="1">
-        <v>37515</v>
+        <v>26550</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
@@ -2131,16 +2134,13 @@
         <v>13</v>
       </c>
       <c r="F62" s="1">
-        <v>43605</v>
-      </c>
-      <c r="G62" s="1">
-        <v>43724</v>
+        <v>43208</v>
       </c>
       <c r="H62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I62">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -2226,7 +2226,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -2241,13 +2241,13 @@
         <v>22</v>
       </c>
       <c r="F66" s="1">
-        <v>44080</v>
+        <v>43435</v>
       </c>
       <c r="H66" t="s">
         <v>9</v>
       </c>
       <c r="I66">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -2278,13 +2278,13 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C68" s="1">
-        <v>26550</v>
+        <v>37515</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
@@ -2295,11 +2295,14 @@
       <c r="F68" s="1">
         <v>43208</v>
       </c>
+      <c r="G68" s="1">
+        <v>42629</v>
+      </c>
       <c r="H68" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I68">
-        <v>70</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -2385,7 +2388,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -2400,13 +2403,13 @@
         <v>22</v>
       </c>
       <c r="F72" s="1">
-        <v>43605</v>
+        <v>43800</v>
       </c>
       <c r="H72" t="s">
         <v>10</v>
       </c>
       <c r="I72">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -2437,10 +2440,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C74" s="1">
         <v>37515</v>
@@ -2452,16 +2455,16 @@
         <v>13</v>
       </c>
       <c r="F74" s="1">
-        <v>43800</v>
+        <v>43208</v>
       </c>
       <c r="G74" s="1">
-        <v>44243</v>
+        <v>42629</v>
       </c>
       <c r="H74" t="s">
         <v>11</v>
       </c>
       <c r="I74">
-        <v>130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -2547,13 +2550,13 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="1">
-        <v>23522</v>
+        <v>31171</v>
       </c>
       <c r="D78" t="s">
         <v>19</v>
@@ -2562,13 +2565,13 @@
         <v>22</v>
       </c>
       <c r="F78" s="1">
-        <v>43208</v>
+        <v>44080</v>
       </c>
       <c r="H78" t="s">
         <v>9</v>
       </c>
       <c r="I78">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -2599,13 +2602,13 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="1">
-        <v>26550</v>
+        <v>37515</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -2614,13 +2617,13 @@
         <v>13</v>
       </c>
       <c r="F80" s="1">
-        <v>42222</v>
+        <v>43014</v>
       </c>
       <c r="H80" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I80">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -2706,13 +2709,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" s="1">
-        <v>34871</v>
+        <v>23522</v>
       </c>
       <c r="D84" t="s">
         <v>19</v>
@@ -2721,13 +2724,13 @@
         <v>22</v>
       </c>
       <c r="F84" s="1">
-        <v>43800</v>
+        <v>44080</v>
       </c>
       <c r="H84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I84">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -2758,10 +2761,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C86" s="1">
         <v>37515</v>
@@ -2773,16 +2776,13 @@
         <v>13</v>
       </c>
       <c r="F86" s="1">
-        <v>44080</v>
-      </c>
-      <c r="G86" s="1">
-        <v>44546</v>
+        <v>42433</v>
       </c>
       <c r="H86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I86">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -2868,13 +2868,13 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B90" t="s">
         <v>25</v>
       </c>
       <c r="C90" s="1">
-        <v>23522</v>
+        <v>34871</v>
       </c>
       <c r="D90" t="s">
         <v>19</v>
@@ -2883,13 +2883,13 @@
         <v>22</v>
       </c>
       <c r="F90" s="1">
-        <v>42222</v>
+        <v>44080</v>
       </c>
       <c r="H90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I90">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -2920,13 +2920,13 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C92" s="1">
-        <v>26550</v>
+        <v>37515</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
@@ -2935,13 +2935,16 @@
         <v>13</v>
       </c>
       <c r="F92" s="1">
-        <v>43605</v>
+        <v>42222</v>
+      </c>
+      <c r="G92" s="1">
+        <v>42994</v>
       </c>
       <c r="H92" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I92">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -3027,13 +3030,13 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C96" s="1">
-        <v>34871</v>
+        <v>31171</v>
       </c>
       <c r="D96" t="s">
         <v>19</v>
@@ -3042,13 +3045,13 @@
         <v>22</v>
       </c>
       <c r="F96" s="1">
-        <v>44080</v>
+        <v>44205</v>
       </c>
       <c r="H96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I96">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -3079,13 +3082,13 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C98" s="1">
-        <v>37515</v>
+        <v>26550</v>
       </c>
       <c r="D98" t="s">
         <v>13</v>
@@ -3094,16 +3097,13 @@
         <v>13</v>
       </c>
       <c r="F98" s="1">
-        <v>43208</v>
-      </c>
-      <c r="G98" s="1">
-        <v>42629</v>
+        <v>41127</v>
       </c>
       <c r="H98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I98">
-        <v>130</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -3160,10 +3160,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C101" s="1">
         <v>37515</v>
@@ -3175,20 +3175,24 @@
         <v>13</v>
       </c>
       <c r="F101" s="1">
-        <v>43208</v>
+        <v>41129</v>
       </c>
       <c r="G101" s="1">
-        <v>42629</v>
+        <v>43933</v>
       </c>
       <c r="H101" t="s">
         <v>11</v>
       </c>
       <c r="I101">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I51" xr:uid="{98C6D894-72C2-0C45-8ED7-57BEAAF8E576}"/>
+  <autoFilter ref="A1:I101" xr:uid="{98C6D894-72C2-0C45-8ED7-57BEAAF8E576}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I101">
+      <sortCondition descending="1" ref="F1:F101"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/10_datenanalyse-interaktive-dashboards/RShinyTraining/Daten/Mitgliederdaten.xlsx
+++ b/10_datenanalyse-interaktive-dashboards/RShinyTraining/Daten/Mitgliederdaten.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninahauser/rprojects/projektzyklus-workshops/10_datenanalyse-interaktive-dashboards/RShinyTraining/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6596DDFB-F06B-8D42-A905-85FE1E4F430D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0C2FCE-9312-2249-AD4C-FB45FF21AC31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="2160" windowWidth="28040" windowHeight="17360" xr2:uid="{A151CDF0-585A-BF42-BE9E-C507B4414376}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$I$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$J$101</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="128">
   <si>
     <t>Mitglieds-ID</t>
   </si>
@@ -118,6 +118,309 @@
   </si>
   <si>
     <t>Spende (p.a. in EUR)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Frie Preu</t>
+  </si>
+  <si>
+    <t>Nina Hauser</t>
+  </si>
+  <si>
+    <t>Max Mustermann</t>
+  </si>
+  <si>
+    <t>Ben Freund</t>
+  </si>
+  <si>
+    <t>Leo Bruder</t>
+  </si>
+  <si>
+    <t>Sigrid Mutter</t>
+  </si>
+  <si>
+    <t>Helga Oma</t>
+  </si>
+  <si>
+    <t>Heidi Tante</t>
+  </si>
+  <si>
+    <t>Dieter Onkel</t>
+  </si>
+  <si>
+    <t>Lisa Cousine</t>
+  </si>
+  <si>
+    <t>Bruno Cousin</t>
+  </si>
+  <si>
+    <t>Gertrud Oma</t>
+  </si>
+  <si>
+    <t>Uri Oma</t>
+  </si>
+  <si>
+    <t>Hans Opa</t>
+  </si>
+  <si>
+    <t>Michael Opa</t>
+  </si>
+  <si>
+    <t>Susi Strolch</t>
+  </si>
+  <si>
+    <t>Simba König</t>
+  </si>
+  <si>
+    <t>Scar Böse</t>
+  </si>
+  <si>
+    <t>Mufasa König</t>
+  </si>
+  <si>
+    <t>Nala König</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Dan Walkup</t>
+  </si>
+  <si>
+    <t>Norris Stottlemyer</t>
+  </si>
+  <si>
+    <t>Cedric Clardy</t>
+  </si>
+  <si>
+    <t>Burton Maya</t>
+  </si>
+  <si>
+    <t>Antony Muniz</t>
+  </si>
+  <si>
+    <t>Gilberto Penrod</t>
+  </si>
+  <si>
+    <t>Chester Sweeny</t>
+  </si>
+  <si>
+    <t>Augustus Gains</t>
+  </si>
+  <si>
+    <t>Gino Lauver</t>
+  </si>
+  <si>
+    <t>Les Liebig</t>
+  </si>
+  <si>
+    <t>Ezekiel Sanfilippo</t>
+  </si>
+  <si>
+    <t>Harvey Duet</t>
+  </si>
+  <si>
+    <t>Simon Swihart</t>
+  </si>
+  <si>
+    <t>Milford Bramhall</t>
+  </si>
+  <si>
+    <t>Herman Keagle</t>
+  </si>
+  <si>
+    <t>Rene Montgomery</t>
+  </si>
+  <si>
+    <t>Emerson Dizon</t>
+  </si>
+  <si>
+    <t>Edison Spillman</t>
+  </si>
+  <si>
+    <t>Lewis Narducci</t>
+  </si>
+  <si>
+    <t>Gonzalo Delreal</t>
+  </si>
+  <si>
+    <t>Leonardo Vaca</t>
+  </si>
+  <si>
+    <t>Victor Armistead</t>
+  </si>
+  <si>
+    <t>Will Brian</t>
+  </si>
+  <si>
+    <t>Francesco Holaway</t>
+  </si>
+  <si>
+    <t>Julio Odoms</t>
+  </si>
+  <si>
+    <t>Fritz Haggerty</t>
+  </si>
+  <si>
+    <t>Nigel Cybart</t>
+  </si>
+  <si>
+    <t>Joaquin Kazmierczak</t>
+  </si>
+  <si>
+    <t>Barry Guest</t>
+  </si>
+  <si>
+    <t>Erin Underwood</t>
+  </si>
+  <si>
+    <t>Raleigh Cabrales</t>
+  </si>
+  <si>
+    <t>Lawrence Palmer</t>
+  </si>
+  <si>
+    <t>Antonia Smyers</t>
+  </si>
+  <si>
+    <t>Ezra Carbonell</t>
+  </si>
+  <si>
+    <t>Bryant Dugal</t>
+  </si>
+  <si>
+    <t>Milo Pollack</t>
+  </si>
+  <si>
+    <t>Timothy Won</t>
+  </si>
+  <si>
+    <t>Mathew Northrup</t>
+  </si>
+  <si>
+    <t>Jc Farthing</t>
+  </si>
+  <si>
+    <t>Murray Pyatt</t>
+  </si>
+  <si>
+    <t>Lester Dolce</t>
+  </si>
+  <si>
+    <t>Genaro Linley</t>
+  </si>
+  <si>
+    <t>Jeremiah Massenburg</t>
+  </si>
+  <si>
+    <t>Garth Scalf</t>
+  </si>
+  <si>
+    <t>Willie Lafreniere</t>
+  </si>
+  <si>
+    <t>Alonso Marko</t>
+  </si>
+  <si>
+    <t>Terrell Gilman</t>
+  </si>
+  <si>
+    <t>Humberto Coach</t>
+  </si>
+  <si>
+    <t>Deshawn Renna</t>
+  </si>
+  <si>
+    <t>Starla Burrough</t>
+  </si>
+  <si>
+    <t>Rosina Cowans</t>
+  </si>
+  <si>
+    <t>Beatriz Southerland</t>
+  </si>
+  <si>
+    <t>Janel Bloomberg</t>
+  </si>
+  <si>
+    <t>Lynette Mattei</t>
+  </si>
+  <si>
+    <t>Samara Luster</t>
+  </si>
+  <si>
+    <t>Lora Edmisten</t>
+  </si>
+  <si>
+    <t>Annmarie Conyers</t>
+  </si>
+  <si>
+    <t>Gertude Mizer</t>
+  </si>
+  <si>
+    <t>Lawana Decamp</t>
+  </si>
+  <si>
+    <t>Helaine Dixson</t>
+  </si>
+  <si>
+    <t>Lashawn Alexandria</t>
+  </si>
+  <si>
+    <t>Debra Frahm</t>
+  </si>
+  <si>
+    <t>Michell Wichman</t>
+  </si>
+  <si>
+    <t>Amal Rufener</t>
+  </si>
+  <si>
+    <t>Rena Lunsford</t>
+  </si>
+  <si>
+    <t>Alaine Schillaci</t>
+  </si>
+  <si>
+    <t>Kaila Roca</t>
+  </si>
+  <si>
+    <t>Ciera Hopper</t>
+  </si>
+  <si>
+    <t>Annis Muir</t>
+  </si>
+  <si>
+    <t>Tracee Cratty</t>
+  </si>
+  <si>
+    <t>Agustina Fernandez</t>
+  </si>
+  <si>
+    <t>Kimberley Paquet</t>
+  </si>
+  <si>
+    <t>Karla Wigley</t>
+  </si>
+  <si>
+    <t>Ja Parrett</t>
+  </si>
+  <si>
+    <t>Lanie Munroe</t>
+  </si>
+  <si>
+    <t>Jaunita Scudder</t>
+  </si>
+  <si>
+    <t>Clementina Cripps</t>
+  </si>
+  <si>
+    <t>Temeka Jorge</t>
+  </si>
+  <si>
+    <t>Leilani Reade</t>
   </si>
 </sst>
 </file>
@@ -484,2713 +787,3019 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B9E068-15FD-6D47-8CB3-BD2B4A20F9DC}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>26550</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>34191</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1">
-        <v>44080</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43800</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
         <v>34871</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>42222</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
         <v>23350</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>42433</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
         <v>37515</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1">
-        <v>44080</v>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="1">
-        <v>44546</v>
-      </c>
-      <c r="H5" t="s">
+        <v>41129</v>
+      </c>
+      <c r="H5" s="1">
+        <v>43933</v>
+      </c>
+      <c r="I5" t="s">
         <v>11</v>
       </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
         <v>23522</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>43014</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
         <v>35478</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>44205</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>11</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
         <v>26550</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1">
         <v>44080</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8">
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>34871</v>
-      </c>
-      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>31171</v>
+      </c>
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="1">
-        <v>41127</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="1">
+        <v>41779</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>28932</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1">
+        <v>43208</v>
+      </c>
+      <c r="H10" s="1">
+        <v>43693</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="I9">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>28932</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1">
-        <v>43208</v>
-      </c>
-      <c r="G10" s="1">
-        <v>43693</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
-      </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
         <v>34191</v>
       </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1">
         <v>43800</v>
       </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
         <v>34871</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>43800</v>
       </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12">
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
         <v>23350</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>42222</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>10</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1">
-        <v>34191</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>37515</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="1">
-        <v>43800</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1">
+        <v>42433</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
         <v>23522</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>43014</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>12</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
         <v>35478</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>44205</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>11</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1">
         <v>26550</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1">
         <v>43014</v>
       </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17">
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1">
-        <v>23522</v>
-      </c>
-      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>31171</v>
+      </c>
+      <c r="E18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="1">
-        <v>41127</v>
-      </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G18" s="1">
+        <v>44205</v>
+      </c>
+      <c r="I18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
         <v>28932</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>44080</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>43213</v>
       </c>
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19">
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
         <v>34191</v>
       </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1">
         <v>43800</v>
       </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20">
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1">
         <v>34871</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>14</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>41702</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>11</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
         <v>23350</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>41129</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>12</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1">
-        <v>34191</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>37515</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="1">
-        <v>43800</v>
-      </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1">
+        <v>43014</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
         <v>23522</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>16</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>44205</v>
       </c>
-      <c r="H24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24">
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
         <v>35478</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>44080</v>
       </c>
-      <c r="H25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25">
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1">
         <v>26550</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="1">
         <v>44080</v>
       </c>
-      <c r="H26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26">
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="1">
-        <v>34871</v>
-      </c>
-      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>31171</v>
+      </c>
+      <c r="E27" t="s">
         <v>19</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="1">
-        <v>41747</v>
-      </c>
-      <c r="H27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G27" s="1">
+        <v>42144</v>
+      </c>
+      <c r="I27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
         <v>28932</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>20</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>43208</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>44194</v>
       </c>
-      <c r="H28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28">
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1">
-        <v>26550</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>34191</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="1">
         <v>43800</v>
       </c>
-      <c r="H29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29">
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29">
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="1">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1">
         <v>34871</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>14</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>42222</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>10</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
         <v>23350</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>15</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>44080</v>
       </c>
-      <c r="H31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31">
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31">
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="1">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1">
         <v>37515</v>
       </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
       <c r="E32" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="1">
-        <v>43800</v>
+      <c r="F32" t="s">
+        <v>13</v>
       </c>
       <c r="G32" s="1">
-        <v>44243</v>
-      </c>
-      <c r="H32" t="s">
+        <v>43605</v>
+      </c>
+      <c r="H32" s="1">
+        <v>43954</v>
+      </c>
+      <c r="I32" t="s">
         <v>11</v>
       </c>
-      <c r="I32">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1">
         <v>23522</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>16</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>43208</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>12</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="1">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1">
         <v>35478</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>17</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>43800</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>11</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1">
         <v>26550</v>
-      </c>
-      <c r="D35" t="s">
-        <v>18</v>
       </c>
       <c r="E35" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="1">
         <v>42222</v>
       </c>
-      <c r="H35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35">
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1">
-        <v>23522</v>
-      </c>
-      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1">
+        <v>31171</v>
+      </c>
+      <c r="E36" t="s">
         <v>19</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="1">
-        <v>41747</v>
-      </c>
-      <c r="H36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G36" s="1">
+        <v>44080</v>
+      </c>
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1">
         <v>28932</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>20</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>43605</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>43714</v>
       </c>
-      <c r="H37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37">
+      <c r="I37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1">
-        <v>37515</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1">
+        <v>34191</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="1">
-        <v>43605</v>
+      <c r="F38" t="s">
+        <v>13</v>
       </c>
       <c r="G38" s="1">
-        <v>43954</v>
-      </c>
-      <c r="H38" t="s">
+        <v>43208</v>
+      </c>
+      <c r="I38" t="s">
         <v>11</v>
       </c>
-      <c r="I38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="1">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1">
         <v>34871</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>16</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>43800</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>12</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="1">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1">
         <v>23350</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>17</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>42222</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>11</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="1">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1">
         <v>37515</v>
-      </c>
-      <c r="D41" t="s">
-        <v>18</v>
       </c>
       <c r="E41" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="1">
         <v>44080</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>44205</v>
       </c>
-      <c r="H41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41">
+      <c r="I41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="1">
-        <v>31171</v>
-      </c>
-      <c r="D42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1">
+        <v>23522</v>
+      </c>
+      <c r="E42" t="s">
         <v>19</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="1">
-        <v>41779</v>
-      </c>
-      <c r="H42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G42" s="1">
+        <v>42144</v>
+      </c>
+      <c r="I42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1">
         <v>35478</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>20</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>43208</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>11</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="1">
-        <v>37515</v>
-      </c>
-      <c r="D44" t="s">
-        <v>13</v>
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1">
+        <v>26550</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="1">
-        <v>43605</v>
+      <c r="F44" t="s">
+        <v>13</v>
       </c>
       <c r="G44" s="1">
-        <v>43724</v>
-      </c>
-      <c r="H44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43800</v>
+      </c>
+      <c r="I44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="1">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1">
         <v>31171</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>16</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <v>42222</v>
       </c>
-      <c r="H45" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45">
+      <c r="I45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="1">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1">
         <v>28932</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>17</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>44080</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>44210</v>
       </c>
-      <c r="H46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46">
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="1">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1">
         <v>34191</v>
-      </c>
-      <c r="D47" t="s">
-        <v>18</v>
       </c>
       <c r="E47" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="1">
         <v>43605</v>
       </c>
-      <c r="H47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47">
+      <c r="I47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="1">
-        <v>31171</v>
-      </c>
-      <c r="D48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1">
+        <v>34871</v>
+      </c>
+      <c r="E48" t="s">
         <v>19</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="1">
-        <v>42144</v>
-      </c>
-      <c r="H48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G48" s="1">
+        <v>41747</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="1">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1">
         <v>23350</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>20</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <v>43800</v>
       </c>
-      <c r="H49" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49">
+      <c r="I49" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="1">
-        <v>26550</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1">
+        <v>37515</v>
       </c>
       <c r="E50" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="1">
-        <v>43605</v>
-      </c>
-      <c r="H50" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="1">
+        <v>42222</v>
+      </c>
+      <c r="H50" s="1">
+        <v>42994</v>
+      </c>
+      <c r="I50" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="1">
+        <v>64</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1">
         <v>23522</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>16</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>23</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
         <v>44080</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>12</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="1">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1">
         <v>23350</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>17</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>24</v>
       </c>
-      <c r="F52" s="1">
+      <c r="G52" s="1">
         <v>43605</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>11</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="1">
+        <v>112</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1">
         <v>37515</v>
-      </c>
-      <c r="D53" t="s">
-        <v>18</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="1">
         <v>43208</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>43474</v>
       </c>
-      <c r="H53" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53">
+      <c r="I53" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="1">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1">
         <v>23522</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>19</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="1">
-        <v>42144</v>
-      </c>
-      <c r="H54" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G54" s="1">
+        <v>43435</v>
+      </c>
+      <c r="I54" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="1">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1">
         <v>35478</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>20</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="1">
+      <c r="G55" s="1">
         <v>42222</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>11</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="1">
-        <v>34191</v>
-      </c>
-      <c r="D56" t="s">
-        <v>13</v>
+        <v>113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1">
+        <v>26550</v>
       </c>
       <c r="E56" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="1">
-        <v>43208</v>
-      </c>
-      <c r="H56" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="1">
+        <v>44080</v>
+      </c>
+      <c r="I56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="1">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1">
         <v>31171</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>16</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="1">
+      <c r="G57" s="1">
         <v>43605</v>
       </c>
-      <c r="H57" t="s">
-        <v>9</v>
-      </c>
-      <c r="I57">
+      <c r="I57" t="s">
+        <v>9</v>
+      </c>
+      <c r="J57">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="1">
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="1">
         <v>28932</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>17</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="1">
+      <c r="G58" s="1">
         <v>43208</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>43599</v>
       </c>
-      <c r="H58" t="s">
-        <v>9</v>
-      </c>
-      <c r="I58">
+      <c r="I58" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58">
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="1">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1">
         <v>34191</v>
-      </c>
-      <c r="D59" t="s">
-        <v>18</v>
       </c>
       <c r="E59" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="1">
         <v>43800</v>
       </c>
-      <c r="H59" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59">
+      <c r="I59" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59">
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="1">
+        <v>114</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1">
         <v>34871</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>19</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>22</v>
       </c>
-      <c r="F60" s="1">
-        <v>42144</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="G60" s="1">
+        <v>41127</v>
+      </c>
+      <c r="I60" t="s">
         <v>10</v>
       </c>
-      <c r="I60">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="1">
+        <v>115</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1">
         <v>23350</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>20</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>44080</v>
       </c>
-      <c r="H61" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61">
+      <c r="I61" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61">
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="1">
-        <v>26550</v>
-      </c>
-      <c r="D62" t="s">
-        <v>13</v>
+        <v>116</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1">
+        <v>37515</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="1">
-        <v>43208</v>
-      </c>
-      <c r="H62" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="1">
+        <v>43605</v>
+      </c>
+      <c r="H62" s="1">
+        <v>43724</v>
+      </c>
+      <c r="I62" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="1">
+        <v>70</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="1">
         <v>23522</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>16</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="1">
+      <c r="G63" s="1">
         <v>43208</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>12</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="1">
+        <v>117</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1">
         <v>23350</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>17</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>24</v>
       </c>
-      <c r="F64" s="1">
+      <c r="G64" s="1">
         <v>43800</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>11</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="1">
+        <v>118</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1">
         <v>37515</v>
-      </c>
-      <c r="D65" t="s">
-        <v>18</v>
       </c>
       <c r="E65" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="1">
         <v>42222</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="1">
         <v>43109</v>
       </c>
-      <c r="H65" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65">
+      <c r="I65" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="1">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1">
         <v>23522</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>19</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="1">
-        <v>43435</v>
-      </c>
-      <c r="H66" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G66" s="1">
+        <v>44080</v>
+      </c>
+      <c r="I66" t="s">
+        <v>9</v>
+      </c>
+      <c r="J66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="1">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1">
         <v>35478</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>20</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="1">
+      <c r="G67" s="1">
         <v>43605</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>11</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="1">
-        <v>37515</v>
-      </c>
-      <c r="D68" t="s">
-        <v>13</v>
+        <v>119</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="1">
+        <v>26550</v>
       </c>
       <c r="E68" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="1">
         <v>43208</v>
       </c>
-      <c r="G68" s="1">
-        <v>42629</v>
-      </c>
-      <c r="H68" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>9</v>
+      </c>
+      <c r="J68">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="1">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1">
         <v>31171</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>16</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>23</v>
       </c>
-      <c r="F69" s="1">
+      <c r="G69" s="1">
         <v>43800</v>
       </c>
-      <c r="H69" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69">
+      <c r="I69" t="s">
+        <v>9</v>
+      </c>
+      <c r="J69">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="1">
+        <v>74</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1">
         <v>28932</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>17</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>24</v>
       </c>
-      <c r="F70" s="1">
+      <c r="G70" s="1">
         <v>42222</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
         <v>43599</v>
       </c>
-      <c r="H70" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70">
+      <c r="I70" t="s">
+        <v>9</v>
+      </c>
+      <c r="J70">
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="1">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1">
         <v>34191</v>
-      </c>
-      <c r="D71" t="s">
-        <v>18</v>
       </c>
       <c r="E71" t="s">
         <v>18</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="1">
         <v>44080</v>
       </c>
-      <c r="H71" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71">
+      <c r="I71" t="s">
+        <v>9</v>
+      </c>
+      <c r="J71">
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="1">
+        <v>120</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1">
         <v>34871</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>19</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>22</v>
       </c>
-      <c r="F72" s="1">
-        <v>43800</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="G72" s="1">
+        <v>42144</v>
+      </c>
+      <c r="I72" t="s">
         <v>10</v>
       </c>
-      <c r="I72">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="1">
+        <v>121</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1">
         <v>23350</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>20</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="1">
+      <c r="G73" s="1">
         <v>43208</v>
       </c>
-      <c r="H73" t="s">
-        <v>9</v>
-      </c>
-      <c r="I73">
+      <c r="I73" t="s">
+        <v>9</v>
+      </c>
+      <c r="J73">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74" s="1">
+        <v>122</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1">
         <v>37515</v>
       </c>
-      <c r="D74" t="s">
-        <v>13</v>
-      </c>
       <c r="E74" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="1">
-        <v>43208</v>
+      <c r="F74" t="s">
+        <v>13</v>
       </c>
       <c r="G74" s="1">
-        <v>42629</v>
-      </c>
-      <c r="H74" t="s">
+        <v>43800</v>
+      </c>
+      <c r="H74" s="1">
+        <v>44243</v>
+      </c>
+      <c r="I74" t="s">
         <v>11</v>
       </c>
-      <c r="I74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="1">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="1">
         <v>23522</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>16</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>23</v>
       </c>
-      <c r="F75" s="1">
+      <c r="G75" s="1">
         <v>42222</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>12</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="1">
+        <v>123</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="1">
         <v>23350</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>17</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>24</v>
       </c>
-      <c r="F76" s="1">
+      <c r="G76" s="1">
         <v>44080</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>11</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="1">
+        <v>124</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1">
         <v>37515</v>
-      </c>
-      <c r="D77" t="s">
-        <v>18</v>
       </c>
       <c r="E77" t="s">
         <v>18</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="1">
         <v>43605</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H77" s="1">
         <v>44205</v>
       </c>
-      <c r="H77" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77">
+      <c r="I77" t="s">
+        <v>9</v>
+      </c>
+      <c r="J77">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="1">
-        <v>31171</v>
-      </c>
-      <c r="D78" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="1">
+        <v>23522</v>
+      </c>
+      <c r="E78" t="s">
         <v>19</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>22</v>
       </c>
-      <c r="F78" s="1">
-        <v>44080</v>
-      </c>
-      <c r="H78" t="s">
-        <v>9</v>
-      </c>
-      <c r="I78">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G78" s="1">
+        <v>41747</v>
+      </c>
+      <c r="I78" t="s">
+        <v>9</v>
+      </c>
+      <c r="J78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="1">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="1">
         <v>35478</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>20</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="1">
+      <c r="G79" s="1">
         <v>43800</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>11</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="1">
-        <v>37515</v>
-      </c>
-      <c r="D80" t="s">
-        <v>13</v>
+        <v>125</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="1">
+        <v>26550</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="1">
-        <v>43014</v>
-      </c>
-      <c r="H80" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="1">
+        <v>41127</v>
+      </c>
+      <c r="I80" t="s">
+        <v>9</v>
+      </c>
+      <c r="J80">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="1">
+        <v>78</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1">
         <v>31171</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>16</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="1">
+      <c r="G81" s="1">
         <v>44080</v>
       </c>
-      <c r="H81" t="s">
-        <v>9</v>
-      </c>
-      <c r="I81">
+      <c r="I81" t="s">
+        <v>9</v>
+      </c>
+      <c r="J81">
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="1">
+        <v>79</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="1">
         <v>28932</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>17</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>24</v>
       </c>
-      <c r="F82" s="1">
+      <c r="G82" s="1">
         <v>43605</v>
       </c>
-      <c r="G82" s="1">
+      <c r="H82" s="1">
         <v>43722</v>
       </c>
-      <c r="H82" t="s">
-        <v>9</v>
-      </c>
-      <c r="I82">
+      <c r="I82" t="s">
+        <v>9</v>
+      </c>
+      <c r="J82">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="1">
+        <v>80</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="1">
         <v>34191</v>
-      </c>
-      <c r="D83" t="s">
-        <v>18</v>
       </c>
       <c r="E83" t="s">
         <v>18</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" s="1">
         <v>43208</v>
       </c>
-      <c r="H83" t="s">
-        <v>9</v>
-      </c>
-      <c r="I83">
+      <c r="I83" t="s">
+        <v>9</v>
+      </c>
+      <c r="J83">
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="1">
-        <v>23522</v>
-      </c>
-      <c r="D84" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="1">
+        <v>34871</v>
+      </c>
+      <c r="E84" t="s">
         <v>19</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="1">
-        <v>44080</v>
-      </c>
-      <c r="H84" t="s">
-        <v>9</v>
-      </c>
-      <c r="I84">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G84" s="1">
+        <v>43800</v>
+      </c>
+      <c r="I84" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="1">
+        <v>127</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="1">
         <v>23350</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>20</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>23</v>
       </c>
-      <c r="F85" s="1">
+      <c r="G85" s="1">
         <v>42222</v>
       </c>
-      <c r="H85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I85">
+      <c r="I85" t="s">
+        <v>9</v>
+      </c>
+      <c r="J85">
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="1">
+        <v>81</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="1">
         <v>37515</v>
       </c>
-      <c r="D86" t="s">
-        <v>13</v>
-      </c>
       <c r="E86" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="1">
-        <v>42433</v>
-      </c>
-      <c r="H86" t="s">
-        <v>9</v>
-      </c>
-      <c r="I86">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="1">
+        <v>44080</v>
+      </c>
+      <c r="H86" s="1">
+        <v>44546</v>
+      </c>
+      <c r="I86" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="1">
+      <c r="D87" s="1">
         <v>23522</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>16</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="1">
+      <c r="G87" s="1">
         <v>43605</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>12</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="1">
+      <c r="D88" s="1">
         <v>23350</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>17</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>24</v>
       </c>
-      <c r="F88" s="1">
+      <c r="G88" s="1">
         <v>43208</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>11</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="1">
+      <c r="D89" s="1">
         <v>37515</v>
-      </c>
-      <c r="D89" t="s">
-        <v>18</v>
       </c>
       <c r="E89" t="s">
         <v>18</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="1">
         <v>43800</v>
       </c>
-      <c r="G89" s="1">
+      <c r="H89" s="1">
         <v>43839</v>
       </c>
-      <c r="H89" t="s">
-        <v>9</v>
-      </c>
-      <c r="I89">
+      <c r="I89" t="s">
+        <v>9</v>
+      </c>
+      <c r="J89">
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="1">
-        <v>34871</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="D90" s="1">
+        <v>23522</v>
+      </c>
+      <c r="E90" t="s">
         <v>19</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>22</v>
       </c>
-      <c r="F90" s="1">
-        <v>44080</v>
-      </c>
-      <c r="H90" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G90" s="1">
+        <v>41127</v>
+      </c>
+      <c r="I90" t="s">
+        <v>9</v>
+      </c>
+      <c r="J90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="1">
+      <c r="D91" s="1">
         <v>35478</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>20</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>23</v>
       </c>
-      <c r="F91" s="1">
+      <c r="G91" s="1">
         <v>44080</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>11</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="1">
-        <v>37515</v>
-      </c>
-      <c r="D92" t="s">
-        <v>13</v>
+        <v>87</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="1">
+        <v>26550</v>
       </c>
       <c r="E92" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="1">
-        <v>42222</v>
+      <c r="F92" t="s">
+        <v>13</v>
       </c>
       <c r="G92" s="1">
-        <v>42994</v>
-      </c>
-      <c r="H92" t="s">
-        <v>11</v>
-      </c>
-      <c r="I92">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43605</v>
+      </c>
+      <c r="I92" t="s">
+        <v>9</v>
+      </c>
+      <c r="J92">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="1">
+      <c r="D93" s="1">
         <v>31171</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>16</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>23</v>
       </c>
-      <c r="F93" s="1">
+      <c r="G93" s="1">
         <v>43208</v>
       </c>
-      <c r="H93" t="s">
-        <v>9</v>
-      </c>
-      <c r="I93">
+      <c r="I93" t="s">
+        <v>9</v>
+      </c>
+      <c r="J93">
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" t="s">
         <v>25</v>
       </c>
-      <c r="C94" s="1">
+      <c r="D94" s="1">
         <v>28932</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>17</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>24</v>
       </c>
-      <c r="F94" s="1">
+      <c r="G94" s="1">
         <v>43800</v>
       </c>
-      <c r="G94" s="1">
+      <c r="H94" s="1">
         <v>43965</v>
       </c>
-      <c r="H94" t="s">
-        <v>9</v>
-      </c>
-      <c r="I94">
+      <c r="I94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J94">
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" t="s">
         <v>25</v>
       </c>
-      <c r="C95" s="1">
+      <c r="D95" s="1">
         <v>34191</v>
-      </c>
-      <c r="D95" t="s">
-        <v>18</v>
       </c>
       <c r="E95" t="s">
         <v>18</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" s="1">
         <v>42222</v>
       </c>
-      <c r="H95" t="s">
-        <v>9</v>
-      </c>
-      <c r="I95">
+      <c r="I95" t="s">
+        <v>9</v>
+      </c>
+      <c r="J95">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="1">
-        <v>31171</v>
-      </c>
-      <c r="D96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="1">
+        <v>34871</v>
+      </c>
+      <c r="E96" t="s">
         <v>19</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>22</v>
       </c>
-      <c r="F96" s="1">
-        <v>44205</v>
-      </c>
-      <c r="H96" t="s">
-        <v>9</v>
-      </c>
-      <c r="I96">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G96" s="1">
+        <v>44080</v>
+      </c>
+      <c r="I96" t="s">
+        <v>10</v>
+      </c>
+      <c r="J96">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="1">
+      <c r="D97" s="1">
         <v>23350</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>20</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>23</v>
       </c>
-      <c r="F97" s="1">
+      <c r="G97" s="1">
         <v>43605</v>
       </c>
-      <c r="H97" t="s">
-        <v>9</v>
-      </c>
-      <c r="I97">
+      <c r="I97" t="s">
+        <v>9</v>
+      </c>
+      <c r="J97">
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="1">
-        <v>26550</v>
-      </c>
-      <c r="D98" t="s">
-        <v>13</v>
+        <v>93</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="1">
+        <v>37515</v>
       </c>
       <c r="E98" t="s">
         <v>13</v>
       </c>
-      <c r="F98" s="1">
-        <v>41127</v>
-      </c>
-      <c r="H98" t="s">
-        <v>9</v>
-      </c>
-      <c r="I98">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="1">
+        <v>43208</v>
+      </c>
+      <c r="H98" s="1">
+        <v>42629</v>
+      </c>
+      <c r="I98" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" t="s">
         <v>25</v>
       </c>
-      <c r="C99" s="1">
+      <c r="D99" s="1">
         <v>23522</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>16</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="1">
+      <c r="G99" s="1">
         <v>43800</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>12</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>140</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" t="s">
         <v>25</v>
       </c>
-      <c r="C100" s="1">
+      <c r="D100" s="1">
         <v>23350</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>17</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>24</v>
       </c>
-      <c r="F100" s="1">
+      <c r="G100" s="1">
         <v>42222</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>11</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="1">
+        <v>96</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="1">
         <v>37515</v>
       </c>
-      <c r="D101" t="s">
-        <v>13</v>
-      </c>
       <c r="E101" t="s">
         <v>13</v>
       </c>
-      <c r="F101" s="1">
-        <v>41129</v>
+      <c r="F101" t="s">
+        <v>13</v>
       </c>
       <c r="G101" s="1">
-        <v>43933</v>
-      </c>
-      <c r="H101" t="s">
+        <v>43208</v>
+      </c>
+      <c r="H101" s="1">
+        <v>42629</v>
+      </c>
+      <c r="I101" t="s">
         <v>11</v>
       </c>
-      <c r="I101">
-        <v>40</v>
+      <c r="J101">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I101" xr:uid="{98C6D894-72C2-0C45-8ED7-57BEAAF8E576}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I101">
-      <sortCondition descending="1" ref="F1:F101"/>
+  <autoFilter ref="A1:J101" xr:uid="{98C6D894-72C2-0C45-8ED7-57BEAAF8E576}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J101">
+      <sortCondition ref="A1:A101"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
